--- a/Lowry_Capstone_Timesheet.xlsx
+++ b/Lowry_Capstone_Timesheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacoblowry/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacoblowry/Senior Capstone/CU-MS-CS-AI-Coursera-Project-A/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C74424E-5668-3E49-8018-B4E6B30E4716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5978C1E-F444-7541-90C5-57CC79FE9225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,15 +68,6 @@
     <t>Sponsor Meeting</t>
   </si>
   <si>
-    <t>Task xxxxxx</t>
-  </si>
-  <si>
-    <t>Task yyyyy</t>
-  </si>
-  <si>
-    <t>Task zzzzzz</t>
-  </si>
-  <si>
     <t>Tasks align with the project plan</t>
   </si>
   <si>
@@ -111,6 +102,15 @@
   </si>
   <si>
     <t>Management Tasks</t>
+  </si>
+  <si>
+    <t>Coding Automization</t>
+  </si>
+  <si>
+    <t>Coding GenAI</t>
+  </si>
+  <si>
+    <t>Coding Evaluation</t>
   </si>
 </sst>
 </file>
@@ -519,7 +519,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -535,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -547,10 +547,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>17</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>20</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -651,7 +651,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -685,7 +685,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -705,7 +705,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
@@ -725,7 +725,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -745,7 +745,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -761,7 +761,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -770,14 +770,11 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -786,10 +783,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="4">
-        <f t="shared" ref="I15" si="2">SUM(B15:H15)</f>
-        <v>0</v>
-      </c>
+      <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
@@ -800,27 +794,27 @@
         <v>2.25</v>
       </c>
       <c r="C16" s="4">
-        <f t="shared" ref="C16:H16" si="3">SUM(C6:C15)</f>
+        <f t="shared" ref="C16:H16" si="2">SUM(C6:C15)</f>
         <v>2</v>
       </c>
       <c r="D16" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E16" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F16" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="G16" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H16" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I16" s="4">
@@ -830,7 +824,7 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
@@ -840,17 +834,17 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
@@ -860,7 +854,7 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
